--- a/Excel/Battle.xlsx
+++ b/Excel/Battle.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,181 +28,94 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>chapter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>section</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>layoutDistance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cameraDistance</t>
-  </si>
-  <si>
-    <t>cameraAngle</t>
-  </si>
-  <si>
-    <t>cameraOffset</t>
-  </si>
-  <si>
-    <t>场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格子大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相机角度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相机偏移量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>battle_1_1</t>
   </si>
   <si>
-    <t>pve_research_1_UH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Layoputs/Layout_Battle_01.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,135,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,1</t>
-  </si>
-  <si>
-    <t>0,0,2</t>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>layoutGridSize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>layoutPoints</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>layoutPrefabUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>light</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属章节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属章节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对阵距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布局预制件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主光源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相机距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Layoputs/Layout_Battle_01.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,135,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pve_research_1_UH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,135,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waveIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waveMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bornMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avatarName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>micro_dragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>micro_dragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属格子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,62 +488,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J1" sqref="J1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -638,213 +542,132 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1">
         <v>13</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1">
-        <v>13</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A6" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1">
         <v>13</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="1">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="1">
-        <v>2</v>
-      </c>
-      <c r="L5" s="1">
-        <v>13</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="1">
         <v>13</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="1">
-        <v>10</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="1">
-        <v>3</v>
-      </c>
-      <c r="L6" s="1">
-        <v>13</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Battle.xlsx
+++ b/Excel/Battle.xlsx
@@ -491,7 +491,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K1048576"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -615,7 +615,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -641,7 +641,7 @@
         <v>17</v>
       </c>
       <c r="I5" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -667,7 +667,7 @@
         <v>17</v>
       </c>
       <c r="I6" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Battle.xlsx
+++ b/Excel/Battle.xlsx
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>avatarName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>grid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,11 +107,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>所属格子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battleUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,7 +491,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H3" activeCellId="1" sqref="H1 H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -528,10 +528,10 @@
         <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -571,25 +571,25 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -608,11 +608,11 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -634,11 +634,11 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
@@ -660,11 +660,11 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" s="1">
         <v>3</v>

--- a/Excel/Battle.xlsx
+++ b/Excel/Battle.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -488,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" activeCellId="1" sqref="H1 H3"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -620,7 +620,7 @@
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A6" si="0">ROW()-3</f>
+        <f t="shared" ref="A5:A12" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -668,6 +668,162 @@
       </c>
       <c r="I6" s="1">
         <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="1">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Battle.xlsx
+++ b/Excel/Battle.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,14 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>micro_dragon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>micro_dragon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>所属区域</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,6 +108,17 @@
   </si>
   <si>
     <t>参战单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Werewolf</t>
+  </si>
+  <si>
+    <t>Micro_Dragon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,7 +494,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H6" sqref="H4:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -528,7 +531,7 @@
         <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>14</v>
@@ -571,25 +574,25 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -612,7 +615,7 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -638,7 +641,7 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
@@ -664,7 +667,7 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I6" s="1">
         <v>3</v>
@@ -690,7 +693,7 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I7" s="1">
         <v>4</v>
@@ -716,7 +719,7 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I8" s="1">
         <v>5</v>
@@ -742,7 +745,7 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I9" s="1">
         <v>6</v>
@@ -768,7 +771,7 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I10" s="1">
         <v>7</v>
@@ -794,7 +797,7 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I11" s="1">
         <v>8</v>
@@ -820,7 +823,7 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I12" s="1">
         <v>9</v>

--- a/Excel/Battle.xlsx
+++ b/Excel/Battle.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,15 +111,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ghost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Werewolf</t>
-  </si>
-  <si>
-    <t>Micro_Dragon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Micro_Dragon_Test</t>
   </si>
 </sst>
 </file>
@@ -494,7 +486,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H4:H6"/>
+      <selection activeCell="H4" sqref="H4:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -504,7 +496,7 @@
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -615,7 +607,7 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -641,7 +633,7 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
@@ -667,7 +659,7 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I6" s="1">
         <v>3</v>
@@ -771,7 +763,7 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="1">
         <v>7</v>
@@ -797,7 +789,7 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11" s="1">
         <v>8</v>
@@ -823,7 +815,7 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" s="1">
         <v>9</v>

--- a/Excel/Battle.xlsx
+++ b/Excel/Battle.xlsx
@@ -28,9 +28,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>battle_1_1</t>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,7 +108,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Micro_Dragon_Test</t>
+    <t>normal_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Micro_Dragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -505,28 +507,28 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -540,22 +542,22 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -563,28 +565,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -593,7 +595,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -603,7 +605,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
@@ -619,7 +621,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -629,7 +631,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
@@ -645,7 +647,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -655,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
@@ -671,7 +673,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -681,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
@@ -697,7 +699,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -707,7 +709,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
@@ -723,7 +725,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -733,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
@@ -749,7 +751,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -759,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
@@ -775,7 +777,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -785,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
@@ -801,7 +803,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -811,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">

--- a/Excel/Battle.xlsx
+++ b/Excel/Battle.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +113,14 @@
   </si>
   <si>
     <t>Micro_Dragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Werewolf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -178,9 +186,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -485,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H12"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -617,7 +626,7 @@
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A12" si="0">ROW()-3</f>
+        <f t="shared" ref="A5:A15" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -747,14 +756,14 @@
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
@@ -764,11 +773,11 @@
         <v>14</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>24</v>
+      <c r="H10" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="I10" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -780,7 +789,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1">
@@ -790,11 +799,11 @@
         <v>14</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>24</v>
+      <c r="H11" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="I11" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -806,7 +815,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1">
@@ -816,11 +825,89 @@
         <v>14</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>24</v>
+      <c r="H12" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="I12" s="1">
-        <v>9</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Battle.xlsx
+++ b/Excel/Battle.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="27">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -494,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -626,7 +626,7 @@
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A15" si="0">ROW()-3</f>
+        <f t="shared" ref="A5:A21" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -907,6 +907,162 @@
         <v>26</v>
       </c>
       <c r="I15" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <f>ROW()-3</f>
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="1">
         <v>6</v>
       </c>
     </row>
